--- a/data/trans_dic/P16A_n_R2-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P16A_n_R2-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>13,49; 20,72</t>
+          <t>13,34; 20,35</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>17,3; 25,41</t>
+          <t>16,92; 25,48</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>17,93; 26,31</t>
+          <t>17,83; 26,47</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>23,88; 31,8</t>
+          <t>24,16; 32,09</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>18,57; 27,72</t>
+          <t>18,27; 27,37</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>20,04; 30,0</t>
+          <t>19,68; 30,43</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>17,59; 26,66</t>
+          <t>17,74; 26,84</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>27,97; 35,14</t>
+          <t>27,92; 35,16</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>16,39; 22,06</t>
+          <t>16,14; 21,98</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>19,55; 25,9</t>
+          <t>19,35; 26,1</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>19,24; 25,23</t>
+          <t>18,85; 25,03</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>26,99; 32,54</t>
+          <t>26,91; 32,35</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>10,29; 18,0</t>
+          <t>10,82; 18,01</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>16,99; 25,82</t>
+          <t>17,23; 25,73</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>18,36; 27,26</t>
+          <t>18,82; 27,57</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>23,18; 31,01</t>
+          <t>23,27; 31,73</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>19,11; 27,61</t>
+          <t>18,95; 27,99</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>23,54; 33,69</t>
+          <t>22,96; 33,62</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>19,98; 29,42</t>
+          <t>19,92; 29,49</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>29,12; 37,0</t>
+          <t>28,61; 36,64</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>15,79; 21,5</t>
+          <t>15,84; 21,61</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>21,06; 27,89</t>
+          <t>21,49; 28,14</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>20,33; 26,63</t>
+          <t>20,09; 26,79</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>27,21; 32,6</t>
+          <t>27,04; 32,59</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>14,42; 20,63</t>
+          <t>14,03; 20,63</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>27,23; 34,76</t>
+          <t>26,76; 34,28</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>22,16; 29,57</t>
+          <t>22,02; 29,62</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>8,42; 34,32</t>
+          <t>7,49; 34,73</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>20,72; 34,29</t>
+          <t>21,04; 34,74</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>31,65; 44,02</t>
+          <t>31,13; 43,51</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>31,13; 47,58</t>
+          <t>31,52; 46,74</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>45,94; 58,59</t>
+          <t>46,35; 58,9</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>16,8; 22,52</t>
+          <t>16,55; 22,31</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>29,56; 35,9</t>
+          <t>29,64; 36,24</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>25,57; 32,49</t>
+          <t>25,47; 32,4</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>11,41; 40,02</t>
+          <t>11,78; 39,75</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>19,47; 24,07</t>
+          <t>19,36; 24,19</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>26,04; 31,7</t>
+          <t>26,47; 31,9</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>22,37; 27,43</t>
+          <t>22,39; 27,42</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>31,44; 37,85</t>
+          <t>31,65; 38,28</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>23,16; 29,45</t>
+          <t>23,06; 29,28</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>30,13; 37,55</t>
+          <t>29,94; 37,12</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>24,15; 30,32</t>
+          <t>24,21; 30,57</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>37,61; 74,62</t>
+          <t>37,51; 74,57</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>21,46; 25,08</t>
+          <t>21,43; 25,24</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>28,54; 32,99</t>
+          <t>28,6; 32,97</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>23,82; 27,82</t>
+          <t>23,97; 27,88</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>35,55; 59,99</t>
+          <t>35,45; 58,35</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>13,86; 22,02</t>
+          <t>13,77; 21,87</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>22,01; 30,07</t>
+          <t>22,21; 29,83</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>22,42; 29,33</t>
+          <t>22,06; 29,13</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>28,87; 37,07</t>
+          <t>28,71; 37,63</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>25,48; 33,14</t>
+          <t>25,11; 32,76</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>42,93; 50,54</t>
+          <t>42,93; 50,55</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>37,48; 45,13</t>
+          <t>37,46; 44,89</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>31,42; 49,41</t>
+          <t>31,43; 49,58</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>21,82; 27,59</t>
+          <t>21,79; 27,48</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>35,7; 40,98</t>
+          <t>35,36; 41,08</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>31,48; 36,43</t>
+          <t>31,35; 36,62</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>32,56; 43,28</t>
+          <t>32,63; 43,51</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>3,22; 8,62</t>
+          <t>3,46; 8,82</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>4,95; 12,11</t>
+          <t>5,08; 12,23</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>4,11; 10,39</t>
+          <t>4,34; 10,19</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>4,94; 16,64</t>
+          <t>4,87; 16,91</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>33,82; 39,06</t>
+          <t>33,71; 39,2</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>45,13; 51,46</t>
+          <t>45,39; 51,41</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>40,1; 46,32</t>
+          <t>39,9; 46,2</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>40,54; 46,97</t>
+          <t>40,18; 46,83</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>27,91; 32,74</t>
+          <t>28,2; 32,81</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>37,57; 42,96</t>
+          <t>37,72; 43,13</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>33,1; 38,61</t>
+          <t>32,6; 38,08</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>32,38; 38,37</t>
+          <t>32,07; 38,15</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>16,19; 18,7</t>
+          <t>16,2; 18,66</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>23,76; 26,88</t>
+          <t>23,64; 26,88</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>21,4; 24,5</t>
+          <t>21,59; 24,55</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>21,77; 30,67</t>
+          <t>21,14; 30,69</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>28,22; 31,39</t>
+          <t>28,25; 31,45</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>38,2; 41,68</t>
+          <t>38,11; 41,65</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>33,07; 36,41</t>
+          <t>33,03; 36,3</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>39,06; 53,98</t>
+          <t>39,23; 54,21</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>22,65; 24,81</t>
+          <t>22,79; 24,81</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>31,71; 33,95</t>
+          <t>31,49; 33,9</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>27,85; 30,07</t>
+          <t>27,8; 30,13</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>32,54; 42,55</t>
+          <t>32,12; 41,39</t>
         </is>
       </c>
     </row>
@@ -1646,4 +1647,1630 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha consumido dos o más medicamentos en las dos últimas semanas</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>179</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>234</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>145</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>413</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>78820</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>91779</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>93961</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>140993</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>70147</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>78094</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>75745</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>140519</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>148967</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>169873</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>169706</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>281512</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>63199; 96401</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>73970; 111423</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>76527; 113592</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>122034; 162110</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>56017; 83925</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>61885; 95693</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>61580; 93133</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>124915; 157323</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>125989; 171552</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>145452; 196180</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>146273; 194277</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>256365; 308146</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>154</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>209</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>164</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>162</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>363</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>51411</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>87978</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>85221</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>122317</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>86002</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>95832</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>90598</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>125734</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>137413</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>183810</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>175819</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>248051</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>39714; 66094</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>72151; 107767</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>70987; 104003</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>105239; 143495</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>70461; 104091</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>77592; 113646</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>74159; 109779</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>109462; 140183</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>117037; 159661</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>162622; 212976</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>150574; 200760</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>225709; 272053</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>174</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>182</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>154</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>265</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>191</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>336</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>93366</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>193377</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>134662</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>141667</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>45233</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>97375</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>65095</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>87089</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>138600</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>290751</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>199756</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>228756</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>76095; 111896</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>168420; 215749</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>114928; 154568</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>50068; 232106</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>35297; 58292</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>80991; 113180</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>52363; 77643</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>77371; 98305</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>117499; 158441</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>263677; 322341</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>175221; 222941</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>98391; 331964</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>306</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>283</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>455</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>185</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>236</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>530</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>462</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>542</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>493</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>985</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>268279</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>336095</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>285561</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>358351</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>186191</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>256667</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>225155</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>502045</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>454470</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>592762</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>510716</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>860395</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>239745; 299572</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>306781; 369726</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>257354; 315215</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>327500; 396113</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>164713; 209142</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>229508; 284589</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>199981; 252463</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>366877; 729400</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>418494; 492779</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>550721; 634977</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>473436; 550712</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>713541; 1174603</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>165</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>156</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>330</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>276</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>693</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>221</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>455</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>441</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>893</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>61587</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>132589</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>158429</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>156828</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>164598</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>355265</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>303108</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>366475</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>226185</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>487854</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>461537</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>523303</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>48276; 76669</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>113415; 152299</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>136943; 180811</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>136378; 178737</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>142799; 186298</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>326893; 384955</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>276583; 331380</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>264407; 417114</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>200326; 252665</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>449819; 522622</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>426008; 497697</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>429518; 572822</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>442</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>502</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>403</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>612</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>459</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>521</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>421</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>629</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>16608</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>20795</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>19285</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>23099</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>454343</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>536149</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>467628</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>331619</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>470950</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>556944</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>486913</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>354718</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>10320; 26314</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>13548; 32641</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>12460; 29247</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>11706; 40667</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>421013; 489548</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>503510; 570276</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>431748; 499907</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>305946; 356517</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>436256; 507520</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>519054; 593548</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>446299; 521418</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>321342; 382234</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>582</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>784</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>768</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>1187</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>978</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>1313</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>1095</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>2432</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>1560</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>2097</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>1863</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>3619</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>570071</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>862612</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>777120</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>943254</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>1006514</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>1419382</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>1227329</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>1553481</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>1576585</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>2281994</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>2004448</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>2496735</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>529650; 610366</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>809013; 919920</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>730826; 831196</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>713594; 1036034</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>954313; 1062304</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>1352936; 1478671</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>1166568; 1282080</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>1403568; 1939646</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>1515455; 1649740</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>2195565; 2363707</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>1923225; 2084150</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>2233513; 2878464</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P16A_n_R2-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P16A_n_R2-Clase-trans_dic.xlsx
@@ -1347,7 +1347,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -2837,7 +2837,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
